--- a/Data/Lab-linked/ZornDaily_Oct2015toJune2017.xlsx
+++ b/Data/Lab-linked/ZornDaily_Oct2015toJune2017.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DayTightChunks/Documents/PhD/HydrologicalMonitoring/Data/Lab-linked/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1005" windowWidth="20910" windowHeight="11295" activeTab="1"/>
+    <workbookView xWindow="11480" yWindow="2020" windowWidth="20920" windowHeight="11300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WaltenheimSurZorn" sheetId="1" r:id="rId1"/>
     <sheet name="Alteck2016" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>POSTE</t>
   </si>
@@ -580,48 +593,48 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -888,7 +901,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -905,12 +918,12 @@
       <selection pane="bottomRight" activeCell="A367" sqref="A338:XFD367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>67516001</v>
       </c>
@@ -944,7 +957,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>67516001</v>
       </c>
@@ -961,7 +974,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>67516001</v>
       </c>
@@ -978,7 +991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>67516001</v>
       </c>
@@ -995,7 +1008,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>67516001</v>
       </c>
@@ -1012,7 +1025,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>67516001</v>
       </c>
@@ -1029,7 +1042,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>67516001</v>
       </c>
@@ -1046,7 +1059,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>67516001</v>
       </c>
@@ -1063,7 +1076,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>67516001</v>
       </c>
@@ -1080,7 +1093,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>67516001</v>
       </c>
@@ -1097,7 +1110,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>67516001</v>
       </c>
@@ -1114,7 +1127,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>67516001</v>
       </c>
@@ -1131,7 +1144,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>67516001</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>67516001</v>
       </c>
@@ -1165,7 +1178,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>67516001</v>
       </c>
@@ -1182,7 +1195,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>67516001</v>
       </c>
@@ -1199,7 +1212,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>67516001</v>
       </c>
@@ -1216,7 +1229,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>67516001</v>
       </c>
@@ -1233,7 +1246,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>67516001</v>
       </c>
@@ -1250,7 +1263,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>67516001</v>
       </c>
@@ -1267,7 +1280,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>67516001</v>
       </c>
@@ -1284,7 +1297,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>67516001</v>
       </c>
@@ -1301,7 +1314,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>67516001</v>
       </c>
@@ -1318,7 +1331,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>67516001</v>
       </c>
@@ -1335,7 +1348,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>67516001</v>
       </c>
@@ -1352,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>67516001</v>
       </c>
@@ -1369,7 +1382,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>67516001</v>
       </c>
@@ -1386,7 +1399,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>67516001</v>
       </c>
@@ -1403,7 +1416,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>67516001</v>
       </c>
@@ -1420,7 +1433,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>67516001</v>
       </c>
@@ -1437,7 +1450,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>67516001</v>
       </c>
@@ -1454,7 +1467,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>67516001</v>
       </c>
@@ -1471,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>67516001</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>67516001</v>
       </c>
@@ -1505,7 +1518,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>67516001</v>
       </c>
@@ -1522,7 +1535,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>67516001</v>
       </c>
@@ -1539,7 +1552,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>67516001</v>
       </c>
@@ -1556,7 +1569,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>67516001</v>
       </c>
@@ -1573,7 +1586,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>67516001</v>
       </c>
@@ -1590,7 +1603,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>67516001</v>
       </c>
@@ -1607,7 +1620,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>67516001</v>
       </c>
@@ -1624,7 +1637,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>67516001</v>
       </c>
@@ -1641,7 +1654,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>67516001</v>
       </c>
@@ -1658,7 +1671,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>67516001</v>
       </c>
@@ -1675,7 +1688,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>67516001</v>
       </c>
@@ -1692,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>67516001</v>
       </c>
@@ -1709,7 +1722,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>67516001</v>
       </c>
@@ -1726,7 +1739,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>67516001</v>
       </c>
@@ -1743,7 +1756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>67516001</v>
       </c>
@@ -1760,7 +1773,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>67516001</v>
       </c>
@@ -1777,7 +1790,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>67516001</v>
       </c>
@@ -1794,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>67516001</v>
       </c>
@@ -1811,7 +1824,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>67516001</v>
       </c>
@@ -1828,7 +1841,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>67516001</v>
       </c>
@@ -1845,7 +1858,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>67516001</v>
       </c>
@@ -1862,7 +1875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>67516001</v>
       </c>
@@ -1879,7 +1892,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>67516001</v>
       </c>
@@ -1896,7 +1909,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>67516001</v>
       </c>
@@ -1913,7 +1926,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>67516001</v>
       </c>
@@ -1930,7 +1943,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>67516001</v>
       </c>
@@ -1947,7 +1960,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>67516001</v>
       </c>
@@ -1964,7 +1977,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>67516001</v>
       </c>
@@ -1981,7 +1994,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>67516001</v>
       </c>
@@ -1998,7 +2011,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>67516001</v>
       </c>
@@ -2015,7 +2028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>67516001</v>
       </c>
@@ -2032,7 +2045,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67516001</v>
       </c>
@@ -2049,7 +2062,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67516001</v>
       </c>
@@ -2066,7 +2079,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67516001</v>
       </c>
@@ -2083,7 +2096,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67516001</v>
       </c>
@@ -2100,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>67516001</v>
       </c>
@@ -2117,7 +2130,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>67516001</v>
       </c>
@@ -2134,7 +2147,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>67516001</v>
       </c>
@@ -2151,7 +2164,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>67516001</v>
       </c>
@@ -2168,7 +2181,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>67516001</v>
       </c>
@@ -2185,7 +2198,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>67516001</v>
       </c>
@@ -2202,7 +2215,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>67516001</v>
       </c>
@@ -2219,7 +2232,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>67516001</v>
       </c>
@@ -2236,7 +2249,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>67516001</v>
       </c>
@@ -2253,7 +2266,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>67516001</v>
       </c>
@@ -2270,7 +2283,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>67516001</v>
       </c>
@@ -2287,7 +2300,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>67516001</v>
       </c>
@@ -2304,7 +2317,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>67516001</v>
       </c>
@@ -2321,7 +2334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>67516001</v>
       </c>
@@ -2338,7 +2351,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>67516001</v>
       </c>
@@ -2355,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>67516001</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>67516001</v>
       </c>
@@ -2389,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>67516001</v>
       </c>
@@ -2406,7 +2419,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>67516001</v>
       </c>
@@ -2423,7 +2436,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>67516001</v>
       </c>
@@ -2440,7 +2453,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>67516001</v>
       </c>
@@ -2457,7 +2470,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>67516001</v>
       </c>
@@ -2474,7 +2487,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>67516001</v>
       </c>
@@ -2491,7 +2504,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>67516001</v>
       </c>
@@ -2508,7 +2521,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>67516001</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>67516001</v>
       </c>
@@ -2542,7 +2555,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>67516001</v>
       </c>
@@ -2559,7 +2572,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>67516001</v>
       </c>
@@ -2576,7 +2589,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>67516001</v>
       </c>
@@ -2593,7 +2606,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>67516001</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>67516001</v>
       </c>
@@ -2627,7 +2640,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>67516001</v>
       </c>
@@ -2644,7 +2657,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>67516001</v>
       </c>
@@ -2661,7 +2674,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>67516001</v>
       </c>
@@ -2678,7 +2691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>67516001</v>
       </c>
@@ -2695,7 +2708,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>67516001</v>
       </c>
@@ -2712,7 +2725,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>67516001</v>
       </c>
@@ -2729,7 +2742,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>67516001</v>
       </c>
@@ -2746,7 +2759,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>67516001</v>
       </c>
@@ -2763,7 +2776,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>67516001</v>
       </c>
@@ -2780,7 +2793,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>67516001</v>
       </c>
@@ -2797,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>67516001</v>
       </c>
@@ -2814,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>67516001</v>
       </c>
@@ -2831,7 +2844,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>67516001</v>
       </c>
@@ -2848,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>67516001</v>
       </c>
@@ -2865,7 +2878,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>67516001</v>
       </c>
@@ -2882,7 +2895,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>67516001</v>
       </c>
@@ -2899,7 +2912,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>67516001</v>
       </c>
@@ -2916,7 +2929,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>67516001</v>
       </c>
@@ -2933,7 +2946,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>67516001</v>
       </c>
@@ -2950,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>67516001</v>
       </c>
@@ -2967,7 +2980,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>67516001</v>
       </c>
@@ -2984,7 +2997,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>67516001</v>
       </c>
@@ -3001,7 +3014,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>67516001</v>
       </c>
@@ -3018,7 +3031,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>67516001</v>
       </c>
@@ -3035,7 +3048,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>67516001</v>
       </c>
@@ -3052,7 +3065,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>67516001</v>
       </c>
@@ -3069,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>67516001</v>
       </c>
@@ -3086,7 +3099,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>67516001</v>
       </c>
@@ -3103,7 +3116,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>67516001</v>
       </c>
@@ -3120,7 +3133,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>67516001</v>
       </c>
@@ -3137,7 +3150,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>67516001</v>
       </c>
@@ -3154,7 +3167,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>67516001</v>
       </c>
@@ -3171,7 +3184,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>67516001</v>
       </c>
@@ -3188,7 +3201,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>67516001</v>
       </c>
@@ -3205,7 +3218,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>67516001</v>
       </c>
@@ -3222,7 +3235,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>67516001</v>
       </c>
@@ -3239,7 +3252,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>67516001</v>
       </c>
@@ -3256,7 +3269,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>67516001</v>
       </c>
@@ -3273,7 +3286,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>67516001</v>
       </c>
@@ -3290,7 +3303,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>67516001</v>
       </c>
@@ -3307,7 +3320,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>67516001</v>
       </c>
@@ -3322,7 +3335,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>67516001</v>
       </c>
@@ -3339,7 +3352,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>67516001</v>
       </c>
@@ -3356,7 +3369,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>67516001</v>
       </c>
@@ -3373,7 +3386,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>67516001</v>
       </c>
@@ -3390,7 +3403,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>67516001</v>
       </c>
@@ -3407,7 +3420,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>67516001</v>
       </c>
@@ -3424,7 +3437,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>67516001</v>
       </c>
@@ -3441,7 +3454,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>67516001</v>
       </c>
@@ -3458,7 +3471,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>67516001</v>
       </c>
@@ -3475,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>67516001</v>
       </c>
@@ -3492,7 +3505,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>67516001</v>
       </c>
@@ -3509,7 +3522,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>67516001</v>
       </c>
@@ -3526,7 +3539,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>67516001</v>
       </c>
@@ -3543,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>67516001</v>
       </c>
@@ -3560,7 +3573,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>67516001</v>
       </c>
@@ -3577,7 +3590,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>67516001</v>
       </c>
@@ -3594,7 +3607,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>67516001</v>
       </c>
@@ -3611,7 +3624,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>67516001</v>
       </c>
@@ -3628,7 +3641,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>67516001</v>
       </c>
@@ -3645,7 +3658,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>67516001</v>
       </c>
@@ -3662,7 +3675,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>67516001</v>
       </c>
@@ -3679,7 +3692,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>67516001</v>
       </c>
@@ -3696,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>67516001</v>
       </c>
@@ -3713,7 +3726,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>67516001</v>
       </c>
@@ -3730,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>67516001</v>
       </c>
@@ -3747,7 +3760,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>67516001</v>
       </c>
@@ -3764,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>67516001</v>
       </c>
@@ -3781,7 +3794,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>67516001</v>
       </c>
@@ -3798,7 +3811,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>67516001</v>
       </c>
@@ -3815,7 +3828,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>67516001</v>
       </c>
@@ -3832,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>67516001</v>
       </c>
@@ -3849,7 +3862,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>67516001</v>
       </c>
@@ -3866,7 +3879,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>67516001</v>
       </c>
@@ -3883,7 +3896,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>67516001</v>
       </c>
@@ -3900,7 +3913,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>67516001</v>
       </c>
@@ -3917,7 +3930,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>67516001</v>
       </c>
@@ -3934,7 +3947,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>67516001</v>
       </c>
@@ -3951,7 +3964,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>67516001</v>
       </c>
@@ -3968,7 +3981,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>67516001</v>
       </c>
@@ -3985,7 +3998,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>67516001</v>
       </c>
@@ -4002,7 +4015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>67516001</v>
       </c>
@@ -4019,7 +4032,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>67516001</v>
       </c>
@@ -4036,7 +4049,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>67516001</v>
       </c>
@@ -4053,7 +4066,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>67516001</v>
       </c>
@@ -4070,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>67516001</v>
       </c>
@@ -4087,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>67516001</v>
       </c>
@@ -4104,7 +4117,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>67516001</v>
       </c>
@@ -4121,7 +4134,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>67516001</v>
       </c>
@@ -4138,7 +4151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>67516001</v>
       </c>
@@ -4155,7 +4168,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>67516001</v>
       </c>
@@ -4172,7 +4185,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>67516001</v>
       </c>
@@ -4189,7 +4202,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>67516001</v>
       </c>
@@ -4206,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>67516001</v>
       </c>
@@ -4223,7 +4236,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>67516001</v>
       </c>
@@ -4240,7 +4253,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>67516001</v>
       </c>
@@ -4257,7 +4270,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>67516001</v>
       </c>
@@ -4274,7 +4287,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>67516001</v>
       </c>
@@ -4291,7 +4304,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>67516001</v>
       </c>
@@ -4308,7 +4321,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>67516001</v>
       </c>
@@ -4325,7 +4338,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>67516001</v>
       </c>
@@ -4342,7 +4355,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>67516001</v>
       </c>
@@ -4359,7 +4372,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>67516001</v>
       </c>
@@ -4376,7 +4389,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>67516001</v>
       </c>
@@ -4393,7 +4406,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>67516001</v>
       </c>
@@ -4410,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>67516001</v>
       </c>
@@ -4427,7 +4440,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>67516001</v>
       </c>
@@ -4444,7 +4457,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>67516001</v>
       </c>
@@ -4461,7 +4474,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>67516001</v>
       </c>
@@ -4478,7 +4491,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>67516001</v>
       </c>
@@ -4495,7 +4508,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>67516001</v>
       </c>
@@ -4512,7 +4525,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>67516001</v>
       </c>
@@ -4529,7 +4542,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>67516001</v>
       </c>
@@ -4546,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>67516001</v>
       </c>
@@ -4563,7 +4576,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>67516001</v>
       </c>
@@ -4580,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>67516001</v>
       </c>
@@ -4597,7 +4610,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>67516001</v>
       </c>
@@ -4614,7 +4627,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>67516001</v>
       </c>
@@ -4631,7 +4644,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>67516001</v>
       </c>
@@ -4648,7 +4661,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>67516001</v>
       </c>
@@ -4665,7 +4678,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>67516001</v>
       </c>
@@ -4682,7 +4695,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>67516001</v>
       </c>
@@ -4699,7 +4712,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>67516001</v>
       </c>
@@ -4716,7 +4729,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>67516001</v>
       </c>
@@ -4733,7 +4746,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>67516001</v>
       </c>
@@ -4750,7 +4763,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>67516001</v>
       </c>
@@ -4767,7 +4780,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>67516001</v>
       </c>
@@ -4784,7 +4797,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>67516001</v>
       </c>
@@ -4801,7 +4814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>67516001</v>
       </c>
@@ -4818,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>67516001</v>
       </c>
@@ -4835,7 +4848,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>67516001</v>
       </c>
@@ -4852,7 +4865,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>67516001</v>
       </c>
@@ -4869,7 +4882,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>67516001</v>
       </c>
@@ -4886,7 +4899,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>67516001</v>
       </c>
@@ -4903,7 +4916,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>67516001</v>
       </c>
@@ -4920,7 +4933,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>67516001</v>
       </c>
@@ -4937,7 +4950,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>67516001</v>
       </c>
@@ -4954,7 +4967,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>67516001</v>
       </c>
@@ -4971,7 +4984,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>67516001</v>
       </c>
@@ -4988,7 +5001,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>67516001</v>
       </c>
@@ -5005,7 +5018,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>67516001</v>
       </c>
@@ -5022,7 +5035,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>67516001</v>
       </c>
@@ -5039,7 +5052,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>67516001</v>
       </c>
@@ -5056,7 +5069,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>67516001</v>
       </c>
@@ -5073,7 +5086,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>67516001</v>
       </c>
@@ -5090,7 +5103,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>67516001</v>
       </c>
@@ -5107,7 +5120,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>67516001</v>
       </c>
@@ -5124,7 +5137,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>67516001</v>
       </c>
@@ -5141,7 +5154,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>67516001</v>
       </c>
@@ -5158,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>67516001</v>
       </c>
@@ -5175,7 +5188,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>67516001</v>
       </c>
@@ -5192,7 +5205,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>67516001</v>
       </c>
@@ -5209,7 +5222,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>67516001</v>
       </c>
@@ -5226,7 +5239,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>67516001</v>
       </c>
@@ -5243,7 +5256,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>67516001</v>
       </c>
@@ -5260,7 +5273,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>67516001</v>
       </c>
@@ -5277,7 +5290,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>67516001</v>
       </c>
@@ -5294,7 +5307,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>67516001</v>
       </c>
@@ -5311,7 +5324,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>67516001</v>
       </c>
@@ -5328,7 +5341,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>67516001</v>
       </c>
@@ -5345,7 +5358,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>67516001</v>
       </c>
@@ -5362,7 +5375,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>67516001</v>
       </c>
@@ -5379,7 +5392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>67516001</v>
       </c>
@@ -5396,7 +5409,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>67516001</v>
       </c>
@@ -5413,7 +5426,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>67516001</v>
       </c>
@@ -5430,7 +5443,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>67516001</v>
       </c>
@@ -5447,7 +5460,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>67516001</v>
       </c>
@@ -5464,7 +5477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>67516001</v>
       </c>
@@ -5481,7 +5494,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>67516001</v>
       </c>
@@ -5498,7 +5511,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>67516001</v>
       </c>
@@ -5515,7 +5528,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>67516001</v>
       </c>
@@ -5532,7 +5545,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>67516001</v>
       </c>
@@ -5549,7 +5562,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>67516001</v>
       </c>
@@ -5566,7 +5579,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>67516001</v>
       </c>
@@ -5583,7 +5596,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>67516001</v>
       </c>
@@ -5600,7 +5613,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>67516001</v>
       </c>
@@ -5617,7 +5630,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>67516001</v>
       </c>
@@ -5634,7 +5647,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>67516001</v>
       </c>
@@ -5651,7 +5664,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>67516001</v>
       </c>
@@ -5668,7 +5681,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>67516001</v>
       </c>
@@ -5685,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>67516001</v>
       </c>
@@ -5702,7 +5715,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>67516001</v>
       </c>
@@ -5719,7 +5732,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>67516001</v>
       </c>
@@ -5736,7 +5749,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>67516001</v>
       </c>
@@ -5753,7 +5766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>67516001</v>
       </c>
@@ -5770,7 +5783,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>67516001</v>
       </c>
@@ -5787,7 +5800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>67516001</v>
       </c>
@@ -5804,7 +5817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>67516001</v>
       </c>
@@ -5821,7 +5834,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>67516001</v>
       </c>
@@ -5838,7 +5851,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>67516001</v>
       </c>
@@ -5855,7 +5868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>67516001</v>
       </c>
@@ -5872,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>67516001</v>
       </c>
@@ -5889,7 +5902,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>67516001</v>
       </c>
@@ -5906,7 +5919,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>67516001</v>
       </c>
@@ -5923,7 +5936,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>67516001</v>
       </c>
@@ -5940,7 +5953,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>67516001</v>
       </c>
@@ -5957,7 +5970,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>67516001</v>
       </c>
@@ -5974,7 +5987,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>67516001</v>
       </c>
@@ -5991,7 +6004,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>67516001</v>
       </c>
@@ -6008,7 +6021,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>67516001</v>
       </c>
@@ -6025,7 +6038,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>67516001</v>
       </c>
@@ -6042,7 +6055,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>67516001</v>
       </c>
@@ -6059,7 +6072,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>67516001</v>
       </c>
@@ -6076,7 +6089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>67516001</v>
       </c>
@@ -6093,7 +6106,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>67516001</v>
       </c>
@@ -6110,7 +6123,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>67516001</v>
       </c>
@@ -6127,7 +6140,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>67516001</v>
       </c>
@@ -6144,7 +6157,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>67516001</v>
       </c>
@@ -6161,7 +6174,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>67516001</v>
       </c>
@@ -6178,7 +6191,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>67516001</v>
       </c>
@@ -6195,7 +6208,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>67516001</v>
       </c>
@@ -6212,7 +6225,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>67516001</v>
       </c>
@@ -6229,7 +6242,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>67516001</v>
       </c>
@@ -6246,7 +6259,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>67516001</v>
       </c>
@@ -6263,7 +6276,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>67516001</v>
       </c>
@@ -6280,7 +6293,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>67516001</v>
       </c>
@@ -6297,7 +6310,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>67516001</v>
       </c>
@@ -6314,7 +6327,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>67516001</v>
       </c>
@@ -6331,7 +6344,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>67516001</v>
       </c>
@@ -6348,7 +6361,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>67516001</v>
       </c>
@@ -6365,7 +6378,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>67516001</v>
       </c>
@@ -6382,7 +6395,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>67516001</v>
       </c>
@@ -6399,7 +6412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>67516001</v>
       </c>
@@ -6416,7 +6429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>67516001</v>
       </c>
@@ -6433,7 +6446,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>67516001</v>
       </c>
@@ -6450,7 +6463,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>67516001</v>
       </c>
@@ -6467,7 +6480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>67516001</v>
       </c>
@@ -6484,7 +6497,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>67516001</v>
       </c>
@@ -6501,7 +6514,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>67516001</v>
       </c>
@@ -6518,7 +6531,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>67516001</v>
       </c>
@@ -6535,7 +6548,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>67516001</v>
       </c>
@@ -6552,7 +6565,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>67516001</v>
       </c>
@@ -6569,7 +6582,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>67516001</v>
       </c>
@@ -6586,7 +6599,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>67516001</v>
       </c>
@@ -6603,7 +6616,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>67516001</v>
       </c>
@@ -6620,7 +6633,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>67516001</v>
       </c>
@@ -6637,7 +6650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="9">
         <v>67516001</v>
       </c>
@@ -6651,7 +6664,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="9">
         <v>67516001</v>
       </c>
@@ -6665,7 +6678,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="9">
         <v>67516001</v>
       </c>
@@ -6679,7 +6692,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="9">
         <v>67516001</v>
       </c>
@@ -6693,7 +6706,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="9">
         <v>67516001</v>
       </c>
@@ -6707,7 +6720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="9">
         <v>67516001</v>
       </c>
@@ -6721,7 +6734,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="9">
         <v>67516001</v>
       </c>
@@ -6735,7 +6748,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="9">
         <v>67516001</v>
       </c>
@@ -6749,7 +6762,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="9">
         <v>67516001</v>
       </c>
@@ -6763,7 +6776,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="9">
         <v>67516001</v>
       </c>
@@ -6777,7 +6790,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="9">
         <v>67516001</v>
       </c>
@@ -6791,7 +6804,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="9">
         <v>67516001</v>
       </c>
@@ -6805,7 +6818,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="9">
         <v>67516001</v>
       </c>
@@ -6819,7 +6832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="9">
         <v>67516001</v>
       </c>
@@ -6833,7 +6846,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="9">
         <v>67516001</v>
       </c>
@@ -6847,7 +6860,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="9">
         <v>67516001</v>
       </c>
@@ -6861,7 +6874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="9">
         <v>67516001</v>
       </c>
@@ -6875,7 +6888,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="9">
         <v>67516001</v>
       </c>
@@ -6889,7 +6902,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="9">
         <v>67516001</v>
       </c>
@@ -6903,7 +6916,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="9">
         <v>67516001</v>
       </c>
@@ -6917,7 +6930,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="9">
         <v>67516001</v>
       </c>
@@ -6931,7 +6944,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="9">
         <v>67516001</v>
       </c>
@@ -6945,7 +6958,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="9">
         <v>67516001</v>
       </c>
@@ -6959,7 +6972,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="9">
         <v>67516001</v>
       </c>
@@ -6973,7 +6986,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="9">
         <v>67516001</v>
       </c>
@@ -6987,7 +7000,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="9">
         <v>67516001</v>
       </c>
@@ -7001,7 +7014,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="9">
         <v>67516001</v>
       </c>
@@ -7015,7 +7028,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="9">
         <v>67516001</v>
       </c>
@@ -7029,7 +7042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="9">
         <v>67516001</v>
       </c>
@@ -7043,7 +7056,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="9">
         <v>67516001</v>
       </c>
@@ -7057,7 +7070,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="9">
         <v>67516001</v>
       </c>
@@ -7071,7 +7084,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="9">
         <v>67516001</v>
       </c>
@@ -7085,7 +7098,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="9">
         <v>67516001</v>
       </c>
@@ -7099,7 +7112,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="9">
         <v>67516001</v>
       </c>
@@ -7113,7 +7126,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="9">
         <v>67516001</v>
       </c>
@@ -7127,7 +7140,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="9">
         <v>67516001</v>
       </c>
@@ -7141,7 +7154,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="9">
         <v>67516001</v>
       </c>
@@ -7155,7 +7168,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="9">
         <v>67516001</v>
       </c>
@@ -7169,7 +7182,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="9">
         <v>67516001</v>
       </c>
@@ -7183,7 +7196,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="9">
         <v>67516001</v>
       </c>
@@ -7197,7 +7210,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="9">
         <v>67516001</v>
       </c>
@@ -7211,7 +7224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="9">
         <v>67516001</v>
       </c>
@@ -7225,7 +7238,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="9">
         <v>67516001</v>
       </c>
@@ -7239,7 +7252,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="9">
         <v>67516001</v>
       </c>
@@ -7253,7 +7266,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="9">
         <v>67516001</v>
       </c>
@@ -7267,7 +7280,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="9">
         <v>67516001</v>
       </c>
@@ -7281,7 +7294,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="9">
         <v>67516001</v>
       </c>
@@ -7295,7 +7308,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="9">
         <v>67516001</v>
       </c>
@@ -7309,7 +7322,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="9">
         <v>67516001</v>
       </c>
@@ -7323,7 +7336,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="9">
         <v>67516001</v>
       </c>
@@ -7337,7 +7350,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="9">
         <v>67516001</v>
       </c>
@@ -7351,7 +7364,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="9">
         <v>67516001</v>
       </c>
@@ -7365,7 +7378,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="9">
         <v>67516001</v>
       </c>
@@ -7379,7 +7392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="9">
         <v>67516001</v>
       </c>
@@ -7393,7 +7406,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="9">
         <v>67516001</v>
       </c>
@@ -7407,7 +7420,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="9">
         <v>67516001</v>
       </c>
@@ -7421,7 +7434,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="9">
         <v>67516001</v>
       </c>
@@ -7435,7 +7448,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="9">
         <v>67516001</v>
       </c>
@@ -7449,7 +7462,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="9">
         <v>67516001</v>
       </c>
@@ -7463,7 +7476,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="9">
         <v>67516001</v>
       </c>
@@ -7477,7 +7490,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="9">
         <v>67516001</v>
       </c>
@@ -7491,7 +7504,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="9">
         <v>67516001</v>
       </c>
@@ -7505,7 +7518,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="9">
         <v>67516001</v>
       </c>
@@ -7519,7 +7532,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="9">
         <v>67516001</v>
       </c>
@@ -7533,7 +7546,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="9">
         <v>67516001</v>
       </c>
@@ -7547,7 +7560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="9">
         <v>67516001</v>
       </c>
@@ -7561,7 +7574,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="9">
         <v>67516001</v>
       </c>
@@ -7575,7 +7588,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="9">
         <v>67516001</v>
       </c>
@@ -7589,7 +7602,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="9">
         <v>67516001</v>
       </c>
@@ -7603,7 +7616,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="9">
         <v>67516001</v>
       </c>
@@ -7617,7 +7630,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="9">
         <v>67516001</v>
       </c>
@@ -7631,7 +7644,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="9">
         <v>67516001</v>
       </c>
@@ -7645,7 +7658,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="9">
         <v>67516001</v>
       </c>
@@ -7659,7 +7672,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="9">
         <v>67516001</v>
       </c>
@@ -7673,7 +7686,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="9">
         <v>67516001</v>
       </c>
@@ -7687,7 +7700,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="9">
         <v>67516001</v>
       </c>
@@ -7701,7 +7714,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="9">
         <v>67516001</v>
       </c>
@@ -7715,7 +7728,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="9">
         <v>67516001</v>
       </c>
@@ -7729,7 +7742,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="9">
         <v>67516001</v>
       </c>
@@ -7743,7 +7756,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="9">
         <v>67516001</v>
       </c>
@@ -7757,7 +7770,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="9">
         <v>67516001</v>
       </c>
@@ -7771,7 +7784,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="9">
         <v>67516001</v>
       </c>
@@ -7785,7 +7798,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="9">
         <v>67516001</v>
       </c>
@@ -7799,7 +7812,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="9">
         <v>67516001</v>
       </c>
@@ -7813,7 +7826,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="9">
         <v>67516001</v>
       </c>
@@ -7827,7 +7840,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="9">
         <v>67516001</v>
       </c>
@@ -7841,7 +7854,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="9">
         <v>67516001</v>
       </c>
@@ -7855,7 +7868,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="9">
         <v>67516001</v>
       </c>
@@ -7869,7 +7882,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="9">
         <v>67516001</v>
       </c>
@@ -7883,7 +7896,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="9">
         <v>67516001</v>
       </c>
@@ -7897,7 +7910,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="9">
         <v>67516001</v>
       </c>
@@ -7911,7 +7924,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="9">
         <v>67516001</v>
       </c>
@@ -7925,7 +7938,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="9">
         <v>67516001</v>
       </c>
@@ -7939,7 +7952,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="9">
         <v>67516001</v>
       </c>
@@ -7953,7 +7966,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="9">
         <v>67516001</v>
       </c>
@@ -7967,7 +7980,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="9">
         <v>67516001</v>
       </c>
@@ -7981,7 +7994,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="9">
         <v>67516001</v>
       </c>
@@ -7995,7 +8008,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="9">
         <v>67516001</v>
       </c>
@@ -8009,7 +8022,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="9">
         <v>67516001</v>
       </c>
@@ -8023,7 +8036,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="9">
         <v>67516001</v>
       </c>
@@ -8037,7 +8050,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="9">
         <v>67516001</v>
       </c>
@@ -8051,7 +8064,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="9">
         <v>67516001</v>
       </c>
@@ -8065,7 +8078,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="9">
         <v>67516001</v>
       </c>
@@ -8079,7 +8092,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="9">
         <v>67516001</v>
       </c>
@@ -8093,7 +8106,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="9">
         <v>67516001</v>
       </c>
@@ -8107,7 +8120,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="9">
         <v>67516001</v>
       </c>
@@ -8121,7 +8134,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="9">
         <v>67516001</v>
       </c>
@@ -8135,7 +8148,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="9">
         <v>67516001</v>
       </c>
@@ -8149,7 +8162,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="9">
         <v>67516001</v>
       </c>
@@ -8163,7 +8176,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="9">
         <v>67516001</v>
       </c>
@@ -8177,7 +8190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="9">
         <v>67516001</v>
       </c>
@@ -8191,7 +8204,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="9">
         <v>67516001</v>
       </c>
@@ -8205,7 +8218,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="9">
         <v>67516001</v>
       </c>
@@ -8219,7 +8232,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="9">
         <v>67516001</v>
       </c>
@@ -8233,7 +8246,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="9">
         <v>67516001</v>
       </c>
@@ -8247,7 +8260,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="9">
         <v>67516001</v>
       </c>
@@ -8261,7 +8274,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="9">
         <v>67516001</v>
       </c>
@@ -8275,7 +8288,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="9">
         <v>67516001</v>
       </c>
@@ -8289,7 +8302,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="9">
         <v>67516001</v>
       </c>
@@ -8303,7 +8316,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="9">
         <v>67516001</v>
       </c>
@@ -8317,7 +8330,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="9">
         <v>67516001</v>
       </c>
@@ -8331,7 +8344,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="9">
         <v>67516001</v>
       </c>
@@ -8345,7 +8358,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="9">
         <v>67516001</v>
       </c>
@@ -8359,7 +8372,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="9">
         <v>67516001</v>
       </c>
@@ -8373,7 +8386,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="9">
         <v>67516001</v>
       </c>
@@ -8387,7 +8400,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="9">
         <v>67516001</v>
       </c>
@@ -8401,7 +8414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="9">
         <v>67516001</v>
       </c>
@@ -8415,7 +8428,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="9">
         <v>67516001</v>
       </c>
@@ -8429,7 +8442,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="9">
         <v>67516001</v>
       </c>
@@ -8443,7 +8456,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="9">
         <v>67516001</v>
       </c>
@@ -8457,7 +8470,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="9">
         <v>67516001</v>
       </c>
@@ -8471,7 +8484,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="9">
         <v>67516001</v>
       </c>
@@ -8485,7 +8498,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="9">
         <v>67516001</v>
       </c>
@@ -8499,7 +8512,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="9">
         <v>67516001</v>
       </c>
@@ -8513,7 +8526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="9">
         <v>67516001</v>
       </c>
@@ -8527,7 +8540,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="9">
         <v>67516001</v>
       </c>
@@ -8541,7 +8554,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="9">
         <v>67516001</v>
       </c>
@@ -8555,7 +8568,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="9">
         <v>67516001</v>
       </c>
@@ -8569,7 +8582,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="9">
         <v>67516001</v>
       </c>
@@ -8583,7 +8596,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="9">
         <v>67516001</v>
       </c>
@@ -8597,7 +8610,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="9">
         <v>67516001</v>
       </c>
@@ -8611,7 +8624,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="9">
         <v>67516001</v>
       </c>
@@ -8625,7 +8638,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="9">
         <v>67516001</v>
       </c>
@@ -8639,7 +8652,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="9">
         <v>67516001</v>
       </c>
@@ -8653,7 +8666,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="9">
         <v>67516001</v>
       </c>
@@ -8667,7 +8680,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="9">
         <v>67516001</v>
       </c>
@@ -8681,7 +8694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="9">
         <v>67516001</v>
       </c>
@@ -8695,7 +8708,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="9">
         <v>67516001</v>
       </c>
@@ -8709,7 +8722,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="9">
         <v>67516001</v>
       </c>
@@ -8723,7 +8736,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="9">
         <v>67516001</v>
       </c>
@@ -8737,7 +8750,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="9">
         <v>67516001</v>
       </c>
@@ -8751,7 +8764,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="9">
         <v>67516001</v>
       </c>
@@ -8765,7 +8778,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="9">
         <v>67516001</v>
       </c>
@@ -8779,7 +8792,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="9">
         <v>67516001</v>
       </c>
@@ -8793,7 +8806,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="9">
         <v>67516001</v>
       </c>
@@ -8807,7 +8820,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="9">
         <v>67516001</v>
       </c>
@@ -8821,7 +8834,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="9">
         <v>67516001</v>
       </c>
@@ -8835,7 +8848,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="9">
         <v>67516001</v>
       </c>
@@ -8849,7 +8862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="9">
         <v>67516001</v>
       </c>
@@ -8863,7 +8876,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="9">
         <v>67516001</v>
       </c>
@@ -8877,7 +8890,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="9">
         <v>67516001</v>
       </c>
@@ -8891,7 +8904,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="9">
         <v>67516001</v>
       </c>
@@ -8905,7 +8918,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="9">
         <v>67516001</v>
       </c>
@@ -8919,7 +8932,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="9">
         <v>67516001</v>
       </c>
@@ -8933,7 +8946,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="9">
         <v>67516001</v>
       </c>
@@ -8947,7 +8960,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="9">
         <v>67516001</v>
       </c>
@@ -8961,7 +8974,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="9">
         <v>67516001</v>
       </c>
@@ -8975,7 +8988,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="9">
         <v>67516001</v>
       </c>
@@ -8989,7 +9002,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="9">
         <v>67516001</v>
       </c>
@@ -9003,7 +9016,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="9">
         <v>67516001</v>
       </c>
@@ -9017,7 +9030,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="9">
         <v>67516001</v>
       </c>
@@ -9031,7 +9044,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="9">
         <v>67516001</v>
       </c>
@@ -9045,7 +9058,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="9">
         <v>67516001</v>
       </c>
@@ -9059,7 +9072,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="9">
         <v>67516001</v>
       </c>
@@ -9073,7 +9086,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="9">
         <v>67516001</v>
       </c>
@@ -9087,7 +9100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="9">
         <v>67516001</v>
       </c>
@@ -9101,7 +9114,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="9">
         <v>67516001</v>
       </c>
@@ -9115,7 +9128,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="9">
         <v>67516001</v>
       </c>
@@ -9129,7 +9142,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="9">
         <v>67516001</v>
       </c>
@@ -9143,7 +9156,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="9">
         <v>67516001</v>
       </c>
@@ -9157,7 +9170,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="9">
         <v>67516001</v>
       </c>
@@ -9171,7 +9184,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="9">
         <v>67516001</v>
       </c>
@@ -9185,7 +9198,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="9">
         <v>67516001</v>
       </c>
@@ -9199,7 +9212,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="9">
         <v>67516001</v>
       </c>
@@ -9213,7 +9226,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="9">
         <v>67516001</v>
       </c>
@@ -9227,7 +9240,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="9">
         <v>67516001</v>
       </c>
@@ -9241,7 +9254,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="9">
         <v>67516001</v>
       </c>
@@ -9255,7 +9268,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="9">
         <v>67516001</v>
       </c>
@@ -9269,7 +9282,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="9">
         <v>67516001</v>
       </c>
@@ -9283,7 +9296,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="9">
         <v>67516001</v>
       </c>
@@ -9297,7 +9310,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="9">
         <v>67516001</v>
       </c>
@@ -9311,7 +9324,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="9">
         <v>67516001</v>
       </c>
@@ -9325,7 +9338,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="9">
         <v>67516001</v>
       </c>
@@ -9339,7 +9352,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="9">
         <v>67516001</v>
       </c>
@@ -9353,7 +9366,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="9">
         <v>67516001</v>
       </c>
@@ -9367,7 +9380,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="9">
         <v>67516001</v>
       </c>
@@ -9381,7 +9394,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="9">
         <v>67516001</v>
       </c>
@@ -9395,7 +9408,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="9">
         <v>67516001</v>
       </c>
@@ -9409,7 +9422,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="9">
         <v>67516001</v>
       </c>
@@ -9423,7 +9436,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="9">
         <v>67516001</v>
       </c>
@@ -9437,7 +9450,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="9">
         <v>67516001</v>
       </c>
@@ -9451,7 +9464,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="9">
         <v>67516001</v>
       </c>
@@ -9463,7 +9476,7 @@
       </c>
       <c r="D539" s="7"/>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="9">
         <v>67516001</v>
       </c>
@@ -9477,7 +9490,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="9">
         <v>67516001</v>
       </c>
@@ -9491,7 +9504,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="9">
         <v>67516001</v>
       </c>
@@ -9505,7 +9518,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="9">
         <v>67516001</v>
       </c>
@@ -9519,7 +9532,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="9">
         <v>67516001</v>
       </c>
@@ -9533,7 +9546,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="9">
         <v>67516001</v>
       </c>
@@ -9547,7 +9560,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="9">
         <v>67516001</v>
       </c>
@@ -9561,7 +9574,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="9">
         <v>67516001</v>
       </c>
@@ -9575,7 +9588,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="9">
         <v>67516001</v>
       </c>
@@ -9589,7 +9602,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="9">
         <v>67516001</v>
       </c>
@@ -9603,7 +9616,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="9">
         <v>67516001</v>
       </c>
@@ -9617,7 +9630,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="9">
         <v>67516001</v>
       </c>
@@ -9631,7 +9644,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="9">
         <v>67516001</v>
       </c>
@@ -9645,7 +9658,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="9">
         <v>67516001</v>
       </c>
@@ -9659,7 +9672,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="9">
         <v>67516001</v>
       </c>
@@ -9673,7 +9686,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="9">
         <v>67516001</v>
       </c>
@@ -9687,7 +9700,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="9">
         <v>67516001</v>
       </c>
@@ -9701,7 +9714,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="9">
         <v>67516001</v>
       </c>
@@ -9715,7 +9728,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="9">
         <v>67516001</v>
       </c>
@@ -9729,7 +9742,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="9">
         <v>67516001</v>
       </c>
@@ -9743,7 +9756,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="9">
         <v>67516001</v>
       </c>
@@ -9757,7 +9770,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="9">
         <v>67516001</v>
       </c>
@@ -9771,7 +9784,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="9">
         <v>67516001</v>
       </c>
@@ -9785,7 +9798,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="9">
         <v>67516001</v>
       </c>
@@ -9799,7 +9812,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="9">
         <v>67516001</v>
       </c>
@@ -9813,7 +9826,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="9">
         <v>67516001</v>
       </c>
@@ -9827,7 +9840,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="9">
         <v>67516001</v>
       </c>
@@ -9841,7 +9854,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="9">
         <v>67516001</v>
       </c>
@@ -9855,7 +9868,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="9">
         <v>67516001</v>
       </c>
@@ -9869,7 +9882,7 @@
         <v>-3.2</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="9">
         <v>67516001</v>
       </c>
@@ -9883,7 +9896,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="9">
         <v>67516001</v>
       </c>
@@ -9897,7 +9910,7 @@
         <v>-4.4000000000000004</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="9">
         <v>67516001</v>
       </c>
@@ -9911,7 +9924,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="9">
         <v>67516001</v>
       </c>
@@ -9925,7 +9938,7 @@
         <v>-5.0999999999999996</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="9">
         <v>67516001</v>
       </c>
@@ -9939,7 +9952,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="9">
         <v>67516001</v>
       </c>
@@ -9953,7 +9966,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="9">
         <v>67516001</v>
       </c>
@@ -9967,7 +9980,7 @@
         <v>-4.9000000000000004</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="9">
         <v>67516001</v>
       </c>
@@ -9981,7 +9994,7 @@
         <v>-6.7</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="9">
         <v>67516001</v>
       </c>
@@ -9995,7 +10008,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="9">
         <v>67516001</v>
       </c>
@@ -10009,7 +10022,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="9">
         <v>67516001</v>
       </c>
@@ -10023,7 +10036,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="9">
         <v>67516001</v>
       </c>
@@ -10037,7 +10050,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="9">
         <v>67516001</v>
       </c>
@@ -10051,7 +10064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="9">
         <v>67516001</v>
       </c>
@@ -10065,7 +10078,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="9">
         <v>67516001</v>
       </c>
@@ -10079,7 +10092,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="9">
         <v>67516001</v>
       </c>
@@ -10093,7 +10106,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" s="9">
         <v>67516001</v>
       </c>
@@ -10107,7 +10120,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" s="9">
         <v>67516001</v>
       </c>
@@ -10121,7 +10134,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="9">
         <v>67516001</v>
       </c>
@@ -10135,7 +10148,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="9">
         <v>67516001</v>
       </c>
@@ -10149,7 +10162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="9">
         <v>67516001</v>
       </c>
@@ -10163,7 +10176,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="9">
         <v>67516001</v>
       </c>
@@ -10177,7 +10190,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="9">
         <v>67516001</v>
       </c>
@@ -10191,7 +10204,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="9">
         <v>67516001</v>
       </c>
@@ -10205,7 +10218,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="9">
         <v>67516001</v>
       </c>
@@ -10219,7 +10232,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="9">
         <v>67516001</v>
       </c>
@@ -10233,7 +10246,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="9">
         <v>67516001</v>
       </c>
@@ -10247,7 +10260,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="9">
         <v>67516001</v>
       </c>
@@ -10261,7 +10274,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="9">
         <v>67516001</v>
       </c>
@@ -10275,7 +10288,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="9">
         <v>67516001</v>
       </c>
@@ -10289,7 +10302,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="9">
         <v>67516001</v>
       </c>
@@ -10303,7 +10316,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="9">
         <v>67516001</v>
       </c>
@@ -10317,7 +10330,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="9">
         <v>67516001</v>
       </c>
@@ -10331,7 +10344,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="9">
         <v>67516001</v>
       </c>
@@ -10345,7 +10358,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="9">
         <v>67516001</v>
       </c>
@@ -10359,7 +10372,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="9">
         <v>67516001</v>
       </c>
@@ -10373,7 +10386,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="9">
         <v>67516001</v>
       </c>
@@ -10387,7 +10400,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="9">
         <v>67516001</v>
       </c>
@@ -10401,7 +10414,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="9">
         <v>67516001</v>
       </c>
@@ -10415,7 +10428,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" s="9">
         <v>67516001</v>
       </c>
@@ -10429,7 +10442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" s="9">
         <v>67516001</v>
       </c>
@@ -10443,7 +10456,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" s="9">
         <v>67516001</v>
       </c>
@@ -10457,7 +10470,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" s="9">
         <v>67516001</v>
       </c>
@@ -10471,7 +10484,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" s="9">
         <v>67516001</v>
       </c>
@@ -10485,7 +10498,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" s="9">
         <v>67516001</v>
       </c>
@@ -10499,7 +10512,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" s="9">
         <v>67516001</v>
       </c>
@@ -10513,7 +10526,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="9">
         <v>67516001</v>
       </c>
@@ -10527,7 +10540,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" s="9">
         <v>67516001</v>
       </c>
@@ -10541,7 +10554,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" s="9">
         <v>67516001</v>
       </c>
@@ -10555,7 +10568,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="9">
         <v>67516001</v>
       </c>
@@ -10569,7 +10582,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" s="9">
         <v>67516001</v>
       </c>
@@ -10583,7 +10596,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" s="9">
         <v>67516001</v>
       </c>
@@ -10597,7 +10610,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" s="9">
         <v>67516001</v>
       </c>
@@ -10611,7 +10624,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" s="9">
         <v>67516001</v>
       </c>
@@ -10625,7 +10638,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" s="9">
         <v>67516001</v>
       </c>
@@ -10639,7 +10652,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="9">
         <v>67516001</v>
       </c>
@@ -10653,7 +10666,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" s="9">
         <v>67516001</v>
       </c>
@@ -10667,7 +10680,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" s="9">
         <v>67516001</v>
       </c>
@@ -10681,7 +10694,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" s="9">
         <v>67516001</v>
       </c>
@@ -10695,7 +10708,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" s="9">
         <v>67516001</v>
       </c>
@@ -10709,7 +10722,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" s="9">
         <v>67516001</v>
       </c>
@@ -10723,7 +10736,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" s="9">
         <v>67516001</v>
       </c>
@@ -10737,7 +10750,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" s="9">
         <v>67516001</v>
       </c>
@@ -10751,7 +10764,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" s="9">
         <v>67516001</v>
       </c>
@@ -10765,7 +10778,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" s="9">
         <v>67516001</v>
       </c>
@@ -10779,7 +10792,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" s="9">
         <v>67516001</v>
       </c>
@@ -10793,7 +10806,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" s="9">
         <v>67516001</v>
       </c>
@@ -10807,7 +10820,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" s="9">
         <v>67516001</v>
       </c>
@@ -10821,7 +10834,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" s="9">
         <v>67516001</v>
       </c>
@@ -10835,7 +10848,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" s="9">
         <v>67516001</v>
       </c>
@@ -10849,7 +10862,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" s="9">
         <v>67516001</v>
       </c>
@@ -10863,7 +10876,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" s="9">
         <v>67516001</v>
       </c>
@@ -10877,7 +10890,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" s="9">
         <v>67516001</v>
       </c>
@@ -10891,7 +10904,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" s="9">
         <v>67516001</v>
       </c>
@@ -10905,7 +10918,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" s="9">
         <v>67516001</v>
       </c>
@@ -10919,7 +10932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" s="9">
         <v>67516001</v>
       </c>
@@ -10933,7 +10946,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" s="9">
         <v>67516001</v>
       </c>
@@ -10947,7 +10960,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" s="9">
         <v>67516001</v>
       </c>
@@ -10961,7 +10974,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" s="9">
         <v>67516001</v>
       </c>
@@ -10975,7 +10988,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" s="9">
         <v>67516001</v>
       </c>
@@ -10989,7 +11002,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" s="9">
         <v>67516001</v>
       </c>
@@ -11003,7 +11016,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" s="9">
         <v>67516001</v>
       </c>
@@ -11017,7 +11030,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" s="9">
         <v>67516001</v>
       </c>
@@ -11031,7 +11044,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" s="9">
         <v>67516001</v>
       </c>
@@ -11045,7 +11058,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" s="9">
         <v>67516001</v>
       </c>
@@ -11059,7 +11072,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" s="9">
         <v>67516001</v>
       </c>
@@ -11073,7 +11086,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655" s="9">
         <v>67516001</v>
       </c>
@@ -11087,7 +11100,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656" s="9">
         <v>67516001</v>
       </c>
@@ -11101,7 +11114,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657" s="9">
         <v>67516001</v>
       </c>
@@ -11115,7 +11128,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658" s="9">
         <v>67516001</v>
       </c>
@@ -11129,7 +11142,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" s="9">
         <v>67516001</v>
       </c>
@@ -11143,7 +11156,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660" s="9">
         <v>67516001</v>
       </c>
@@ -11157,7 +11170,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661" s="9">
         <v>67516001</v>
       </c>
@@ -11171,7 +11184,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" s="9">
         <v>67516001</v>
       </c>
@@ -11185,7 +11198,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663" s="9">
         <v>67516001</v>
       </c>
@@ -11199,7 +11212,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664" s="9">
         <v>67516001</v>
       </c>
@@ -11213,7 +11226,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665" s="9">
         <v>67516001</v>
       </c>
@@ -11227,7 +11240,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666" s="9">
         <v>67516001</v>
       </c>
@@ -11241,7 +11254,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667" s="9">
         <v>67516001</v>
       </c>
@@ -11255,7 +11268,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668" s="9">
         <v>67516001</v>
       </c>
@@ -11269,7 +11282,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" s="9">
         <v>67516001</v>
       </c>
@@ -11283,7 +11296,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670" s="9">
         <v>67516001</v>
       </c>
@@ -11297,7 +11310,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671" s="9">
         <v>67516001</v>
       </c>
@@ -11311,7 +11324,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672" s="9">
         <v>67516001</v>
       </c>
@@ -11325,7 +11338,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" s="9">
         <v>67516001</v>
       </c>
@@ -11339,7 +11352,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A674" s="9">
         <v>67516001</v>
       </c>
@@ -11353,7 +11366,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A675" s="9">
         <v>67516001</v>
       </c>
@@ -11367,7 +11380,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A676" s="9">
         <v>67516001</v>
       </c>
@@ -11381,7 +11394,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A677" s="9">
         <v>67516001</v>
       </c>
@@ -11395,7 +11408,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678" s="9">
         <v>67516001</v>
       </c>
@@ -11409,7 +11422,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A679" s="9">
         <v>67516001</v>
       </c>
@@ -11423,7 +11436,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" s="9">
         <v>67516001</v>
       </c>
@@ -11437,7 +11450,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681" s="9">
         <v>67516001</v>
       </c>
@@ -11451,7 +11464,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682" s="9">
         <v>67516001</v>
       </c>
@@ -11465,7 +11478,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" s="9">
         <v>67516001</v>
       </c>
@@ -11479,7 +11492,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A684" s="9">
         <v>67516001</v>
       </c>
@@ -11493,7 +11506,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A685" s="9">
         <v>67516001</v>
       </c>
@@ -11507,7 +11520,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686" s="9">
         <v>67516001</v>
       </c>
@@ -11521,7 +11534,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687" s="9">
         <v>67516001</v>
       </c>
@@ -11535,7 +11548,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688" s="9">
         <v>67516001</v>
       </c>
@@ -11549,7 +11562,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A689" s="9">
         <v>67516001</v>
       </c>
@@ -11563,7 +11576,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A690" s="9">
         <v>67516001</v>
       </c>
@@ -11577,7 +11590,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A691" s="9">
         <v>67516001</v>
       </c>
@@ -11591,7 +11604,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A692" s="9">
         <v>67516001</v>
       </c>
@@ -11605,7 +11618,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A693" s="9">
         <v>67516001</v>
       </c>
@@ -11619,7 +11632,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A694" s="9">
         <v>67516001</v>
       </c>
@@ -11633,7 +11646,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A695" s="9">
         <v>67516001</v>
       </c>
@@ -11647,7 +11660,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A696" s="9">
         <v>67516001</v>
       </c>
@@ -11661,7 +11674,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A697" s="9">
         <v>67516001</v>
       </c>
@@ -11675,7 +11688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A698" s="9">
         <v>67516001</v>
       </c>
@@ -11689,7 +11702,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A699" s="9">
         <v>67516001</v>
       </c>
@@ -11703,7 +11716,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700" s="9">
         <v>67516001</v>
       </c>
@@ -11717,7 +11730,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A701" s="9">
         <v>67516001</v>
       </c>
@@ -11731,7 +11744,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A702" s="9">
         <v>67516001</v>
       </c>
@@ -11745,7 +11758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A703" s="9">
         <v>67516001</v>
       </c>
@@ -11759,7 +11772,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A704" s="9">
         <v>67516001</v>
       </c>
@@ -11773,7 +11786,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" s="11">
         <v>67516001</v>
       </c>
@@ -11787,7 +11800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" s="9">
         <v>67516001</v>
       </c>
@@ -11801,7 +11814,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" s="9">
         <v>67516001</v>
       </c>
@@ -11815,7 +11828,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" s="9">
         <v>67516001</v>
       </c>
@@ -11829,7 +11842,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A709" s="9">
         <v>67516001</v>
       </c>
@@ -11843,7 +11856,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A710" s="9">
         <v>67516001</v>
       </c>
@@ -11857,7 +11870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A711" s="9">
         <v>67516001</v>
       </c>
@@ -11871,7 +11884,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712" s="9">
         <v>67516001</v>
       </c>
@@ -11885,7 +11898,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A713" s="9">
         <v>67516001</v>
       </c>
@@ -11899,7 +11912,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714" s="9">
         <v>67516001</v>
       </c>
@@ -11913,7 +11926,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" s="9">
         <v>67516001</v>
       </c>
@@ -11927,7 +11940,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" s="9">
         <v>67516001</v>
       </c>
@@ -11941,7 +11954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A717" s="9">
         <v>67516001</v>
       </c>
@@ -11955,7 +11968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A718" s="9">
         <v>67516001</v>
       </c>
@@ -11969,7 +11982,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A719" s="9">
         <v>67516001</v>
       </c>
@@ -11983,7 +11996,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A720" s="9">
         <v>67516001</v>
       </c>
@@ -11997,7 +12010,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" s="9">
         <v>67516001</v>
       </c>
@@ -12011,7 +12024,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" s="9">
         <v>67516001</v>
       </c>
@@ -12025,7 +12038,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723" s="9">
         <v>67516001</v>
       </c>
@@ -12039,7 +12052,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A724" s="9">
         <v>67516001</v>
       </c>
@@ -12056,19 +12069,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D247"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:A117"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -12082,7 +12095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>WaltenheimSurZorn!B270</f>
         <v>42454</v>
@@ -12100,7 +12113,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>WaltenheimSurZorn!B271</f>
         <v>42455</v>
@@ -12118,7 +12131,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>WaltenheimSurZorn!B272</f>
         <v>42456</v>
@@ -12136,7 +12149,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>WaltenheimSurZorn!B273</f>
         <v>42457</v>
@@ -12154,7 +12167,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>WaltenheimSurZorn!B274</f>
         <v>42458</v>
@@ -12172,7 +12185,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>WaltenheimSurZorn!B275</f>
         <v>42459</v>
@@ -12190,7 +12203,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>WaltenheimSurZorn!B276</f>
         <v>42460</v>
@@ -12208,7 +12221,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>WaltenheimSurZorn!B277</f>
         <v>42461</v>
@@ -12226,7 +12239,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f>WaltenheimSurZorn!B278</f>
         <v>42462</v>
@@ -12244,7 +12257,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>WaltenheimSurZorn!B279</f>
         <v>42463</v>
@@ -12262,7 +12275,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f>WaltenheimSurZorn!B280</f>
         <v>42464</v>
@@ -12280,7 +12293,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>WaltenheimSurZorn!B281</f>
         <v>42465</v>
@@ -12298,7 +12311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f>WaltenheimSurZorn!B282</f>
         <v>42466</v>
@@ -12316,7 +12329,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f>WaltenheimSurZorn!B283</f>
         <v>42467</v>
@@ -12334,7 +12347,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f>WaltenheimSurZorn!B284</f>
         <v>42468</v>
@@ -12352,7 +12365,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>WaltenheimSurZorn!B285</f>
         <v>42469</v>
@@ -12370,7 +12383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>WaltenheimSurZorn!B286</f>
         <v>42470</v>
@@ -12388,7 +12401,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f>WaltenheimSurZorn!B287</f>
         <v>42471</v>
@@ -12406,7 +12419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f>WaltenheimSurZorn!B288</f>
         <v>42472</v>
@@ -12424,7 +12437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>WaltenheimSurZorn!B289</f>
         <v>42473</v>
@@ -12442,7 +12455,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>WaltenheimSurZorn!B290</f>
         <v>42474</v>
@@ -12460,7 +12473,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f>WaltenheimSurZorn!B291</f>
         <v>42475</v>
@@ -12478,7 +12491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f>WaltenheimSurZorn!B292</f>
         <v>42476</v>
@@ -12496,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f>WaltenheimSurZorn!B293</f>
         <v>42477</v>
@@ -12514,7 +12527,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f>WaltenheimSurZorn!B294</f>
         <v>42478</v>
@@ -12532,7 +12545,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f>WaltenheimSurZorn!B295</f>
         <v>42479</v>
@@ -12550,7 +12563,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f>WaltenheimSurZorn!B296</f>
         <v>42480</v>
@@ -12568,7 +12581,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f>WaltenheimSurZorn!B297</f>
         <v>42481</v>
@@ -12586,7 +12599,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f>WaltenheimSurZorn!B298</f>
         <v>42482</v>
@@ -12604,7 +12617,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f>WaltenheimSurZorn!B299</f>
         <v>42483</v>
@@ -12622,7 +12635,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f>WaltenheimSurZorn!B300</f>
         <v>42484</v>
@@ -12640,7 +12653,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f>WaltenheimSurZorn!B301</f>
         <v>42485</v>
@@ -12658,7 +12671,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f>WaltenheimSurZorn!B302</f>
         <v>42486</v>
@@ -12676,7 +12689,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f>WaltenheimSurZorn!B303</f>
         <v>42487</v>
@@ -12694,7 +12707,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f>WaltenheimSurZorn!B304</f>
         <v>42488</v>
@@ -12712,7 +12725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f>WaltenheimSurZorn!B305</f>
         <v>42489</v>
@@ -12730,7 +12743,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f>WaltenheimSurZorn!B306</f>
         <v>42490</v>
@@ -12748,7 +12761,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f>WaltenheimSurZorn!B307</f>
         <v>42491</v>
@@ -12766,7 +12779,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f>WaltenheimSurZorn!B308</f>
         <v>42492</v>
@@ -12784,7 +12797,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f>WaltenheimSurZorn!B309</f>
         <v>42493</v>
@@ -12802,7 +12815,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f>WaltenheimSurZorn!B310</f>
         <v>42494</v>
@@ -12820,7 +12833,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f>WaltenheimSurZorn!B311</f>
         <v>42495</v>
@@ -12838,7 +12851,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f>WaltenheimSurZorn!B312</f>
         <v>42496</v>
@@ -12856,7 +12869,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f>WaltenheimSurZorn!B313</f>
         <v>42497</v>
@@ -12874,7 +12887,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f>WaltenheimSurZorn!B314</f>
         <v>42498</v>
@@ -12892,7 +12905,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f>WaltenheimSurZorn!B315</f>
         <v>42499</v>
@@ -12910,7 +12923,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f>WaltenheimSurZorn!B316</f>
         <v>42500</v>
@@ -12928,7 +12941,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f>WaltenheimSurZorn!B317</f>
         <v>42501</v>
@@ -12946,7 +12959,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f>WaltenheimSurZorn!B318</f>
         <v>42502</v>
@@ -12964,7 +12977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f>WaltenheimSurZorn!B319</f>
         <v>42503</v>
@@ -12982,7 +12995,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>WaltenheimSurZorn!B320</f>
         <v>42504</v>
@@ -13000,7 +13013,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f>WaltenheimSurZorn!B321</f>
         <v>42505</v>
@@ -13018,7 +13031,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f>WaltenheimSurZorn!B322</f>
         <v>42506</v>
@@ -13036,7 +13049,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f>WaltenheimSurZorn!B323</f>
         <v>42507</v>
@@ -13054,7 +13067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f>WaltenheimSurZorn!B324</f>
         <v>42508</v>
@@ -13072,7 +13085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f>WaltenheimSurZorn!B325</f>
         <v>42509</v>
@@ -13090,7 +13103,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f>WaltenheimSurZorn!B326</f>
         <v>42510</v>
@@ -13108,7 +13121,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f>WaltenheimSurZorn!B327</f>
         <v>42511</v>
@@ -13126,7 +13139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f>WaltenheimSurZorn!B328</f>
         <v>42512</v>
@@ -13144,7 +13157,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f>WaltenheimSurZorn!B329</f>
         <v>42513</v>
@@ -13162,7 +13175,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f>WaltenheimSurZorn!B330</f>
         <v>42514</v>
@@ -13180,7 +13193,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <f>WaltenheimSurZorn!B331</f>
         <v>42515</v>
@@ -13198,7 +13211,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <f>WaltenheimSurZorn!B332</f>
         <v>42516</v>
@@ -13216,7 +13229,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <f>WaltenheimSurZorn!B333</f>
         <v>42517</v>
@@ -13234,7 +13247,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <f>WaltenheimSurZorn!B334</f>
         <v>42518</v>
@@ -13252,7 +13265,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <f>WaltenheimSurZorn!B335</f>
         <v>42519</v>
@@ -13270,7 +13283,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <f>WaltenheimSurZorn!B336</f>
         <v>42520</v>
@@ -13288,7 +13301,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <f>WaltenheimSurZorn!B337</f>
         <v>42521</v>
@@ -13306,7 +13319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>42522</v>
       </c>
@@ -13317,7 +13330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>42523</v>
       </c>
@@ -13328,7 +13341,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>42524</v>
       </c>
@@ -13339,7 +13352,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>42525</v>
       </c>
@@ -13350,7 +13363,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>42526</v>
       </c>
@@ -13361,7 +13374,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>42527</v>
       </c>
@@ -13372,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>42528</v>
       </c>
@@ -13383,7 +13396,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>42529</v>
       </c>
@@ -13394,7 +13407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>42530</v>
       </c>
@@ -13405,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>42531</v>
       </c>
@@ -13416,7 +13429,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>42532</v>
       </c>
@@ -13427,7 +13440,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>42533</v>
       </c>
@@ -13438,7 +13451,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>42534</v>
       </c>
@@ -13449,7 +13462,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
         <v>42535</v>
       </c>
@@ -13460,7 +13473,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>42536</v>
       </c>
@@ -13471,7 +13484,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>42537</v>
       </c>
@@ -13482,7 +13495,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>42538</v>
       </c>
@@ -13493,7 +13506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>42539</v>
       </c>
@@ -13504,7 +13517,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>42540</v>
       </c>
@@ -13515,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
         <v>42541</v>
       </c>
@@ -13526,7 +13539,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>42542</v>
       </c>
@@ -13537,7 +13550,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
         <v>42543</v>
       </c>
@@ -13548,7 +13561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
         <v>42544</v>
       </c>
@@ -13559,7 +13572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <v>42545</v>
       </c>
@@ -13570,7 +13583,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
         <v>42546</v>
       </c>
@@ -13581,7 +13594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
         <v>42547</v>
       </c>
@@ -13592,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
         <v>42548</v>
       </c>
@@ -13603,7 +13616,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
         <v>42549</v>
       </c>
@@ -13614,7 +13627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
         <v>42550</v>
       </c>
@@ -13625,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10">
         <v>42551</v>
       </c>
@@ -13636,25 +13649,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" t="s">
         <v>11</v>
@@ -13666,7 +13679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>6</v>
       </c>
@@ -13683,7 +13696,7 @@
         <v>2.5499999999999994</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -13700,7 +13713,7 @@
         <v>1.1360444599246005</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>13</v>
       </c>
@@ -13711,24 +13724,33 @@
       </c>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>14</v>
       </c>
@@ -13737,11 +13759,23 @@
         <v>9.1033333333333317</v>
       </c>
       <c r="C110" s="3">
+        <f>STDEVA(B9:B38)</f>
+        <v>2.8847378812776365</v>
+      </c>
+      <c r="D110" s="3">
+        <f>AVERAGE(D9:D38)</f>
+        <v>2.1466666666666665</v>
+      </c>
+      <c r="E110" s="3">
+        <f>STDEVA(D9:D38)</f>
+        <v>0.82618079900447894</v>
+      </c>
+      <c r="G110" s="3">
         <f>AVERAGE(C9:C38)</f>
         <v>3.0200000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>15</v>
       </c>
@@ -13750,11 +13784,23 @@
         <v>14.054838709677417</v>
       </c>
       <c r="C111" s="3">
+        <f>STDEVA(B39:B69)</f>
+        <v>3.2060192045252958</v>
+      </c>
+      <c r="D111" s="3">
+        <f>AVERAGE(D39:D69)</f>
+        <v>3.1096774193548389</v>
+      </c>
+      <c r="E111" s="3">
+        <f>STDEVA(D39:D69)</f>
+        <v>1.2117081163134056</v>
+      </c>
+      <c r="G111" s="3">
         <f>AVERAGE(C39:C69)</f>
         <v>3.7161290322580647</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>16</v>
       </c>
@@ -13763,413 +13809,419 @@
         <v>17.589999999999996</v>
       </c>
       <c r="C112" s="7">
+        <f>STDEVA(B70:B99)</f>
+        <v>2.9202444394617117</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="G112" s="7">
         <f>AVERAGE(C70:C99)</f>
         <v>5.3633333333333342</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
     </row>
   </sheetData>
